--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tnfsf13-Fas.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tnfsf13-Fas.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8685822327816</v>
+        <v>1.153770666666667</v>
       </c>
       <c r="H2">
-        <v>0.8685822327816</v>
+        <v>3.461312</v>
       </c>
       <c r="I2">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="J2">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.22947507977682</v>
+        <v>6.104042</v>
       </c>
       <c r="N2">
-        <v>5.22947507977682</v>
+        <v>18.312126</v>
       </c>
       <c r="O2">
-        <v>0.2069765385541298</v>
+        <v>0.2173731183071527</v>
       </c>
       <c r="P2">
-        <v>0.2069765385541298</v>
+        <v>0.2173731183071528</v>
       </c>
       <c r="Q2">
-        <v>4.542229141068286</v>
+        <v>7.042664607701332</v>
       </c>
       <c r="R2">
-        <v>4.542229141068286</v>
+        <v>63.38398146931199</v>
       </c>
       <c r="S2">
-        <v>0.02142641988712917</v>
+        <v>0.02813454223510057</v>
       </c>
       <c r="T2">
-        <v>0.02142641988712917</v>
+        <v>0.02813454223510057</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8685822327816</v>
+        <v>1.153770666666667</v>
       </c>
       <c r="H3">
-        <v>0.8685822327816</v>
+        <v>3.461312</v>
       </c>
       <c r="I3">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="J3">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.80619080499358</v>
+        <v>9.854944999999999</v>
       </c>
       <c r="N3">
-        <v>9.80619080499358</v>
+        <v>29.564835</v>
       </c>
       <c r="O3">
-        <v>0.3881176214163214</v>
+        <v>0.3509478023571075</v>
       </c>
       <c r="P3">
-        <v>0.3881176214163214</v>
+        <v>0.3509478023571075</v>
       </c>
       <c r="Q3">
-        <v>8.51748310448372</v>
+        <v>11.37034646261333</v>
       </c>
       <c r="R3">
-        <v>8.51748310448372</v>
+        <v>102.33311816352</v>
       </c>
       <c r="S3">
-        <v>0.04017832736092982</v>
+        <v>0.04542307643477767</v>
       </c>
       <c r="T3">
-        <v>0.04017832736092982</v>
+        <v>0.04542307643477766</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8685822327816</v>
+        <v>1.153770666666667</v>
       </c>
       <c r="H4">
-        <v>0.8685822327816</v>
+        <v>3.461312</v>
       </c>
       <c r="I4">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="J4">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.22964617369431</v>
+        <v>3.320282333333334</v>
       </c>
       <c r="N4">
-        <v>3.22964617369431</v>
+        <v>9.960847000000001</v>
       </c>
       <c r="O4">
-        <v>0.1278256374852763</v>
+        <v>0.1182397048475118</v>
       </c>
       <c r="P4">
-        <v>0.1278256374852763</v>
+        <v>0.1182397048475119</v>
       </c>
       <c r="Q4">
-        <v>2.805213284641955</v>
+        <v>3.830844361251555</v>
       </c>
       <c r="R4">
-        <v>2.805213284641955</v>
+        <v>34.477599251264</v>
       </c>
       <c r="S4">
-        <v>0.01323263883062383</v>
+        <v>0.01530373210728644</v>
       </c>
       <c r="T4">
-        <v>0.01323263883062383</v>
+        <v>0.01530373210728644</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8685822327816</v>
+        <v>1.153770666666667</v>
       </c>
       <c r="H5">
-        <v>0.8685822327816</v>
+        <v>3.461312</v>
       </c>
       <c r="I5">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="J5">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.86073856376713</v>
+        <v>7.207903666666667</v>
       </c>
       <c r="N5">
-        <v>5.86073856376713</v>
+        <v>21.623711</v>
       </c>
       <c r="O5">
-        <v>0.2319612127018668</v>
+        <v>0.2566831120232943</v>
       </c>
       <c r="P5">
-        <v>0.2319612127018668</v>
+        <v>0.2566831120232943</v>
       </c>
       <c r="Q5">
-        <v>5.090533387466081</v>
+        <v>8.31626781875911</v>
       </c>
       <c r="R5">
-        <v>5.090533387466081</v>
+        <v>74.846410368832</v>
       </c>
       <c r="S5">
-        <v>0.02401285853748137</v>
+        <v>0.03322242378679072</v>
       </c>
       <c r="T5">
-        <v>0.02401285853748137</v>
+        <v>0.03322242378679071</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8685822327816</v>
+        <v>1.153770666666667</v>
       </c>
       <c r="H6">
-        <v>0.8685822327816</v>
+        <v>3.461312</v>
       </c>
       <c r="I6">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="J6">
-        <v>0.1035210079210287</v>
+        <v>0.1294297218267158</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.13997767405825</v>
+        <v>1.593769333333333</v>
       </c>
       <c r="N6">
-        <v>1.13997767405825</v>
+        <v>4.781308</v>
       </c>
       <c r="O6">
-        <v>0.0451189898424058</v>
+        <v>0.05675626246493366</v>
       </c>
       <c r="P6">
-        <v>0.0451189898424058</v>
+        <v>0.05675626246493367</v>
       </c>
       <c r="Q6">
-        <v>0.9901643534546897</v>
+        <v>1.838844306232889</v>
       </c>
       <c r="R6">
-        <v>0.9901643534546897</v>
+        <v>16.549598756096</v>
       </c>
       <c r="S6">
-        <v>0.004670763304864503</v>
+        <v>0.007345947262760437</v>
       </c>
       <c r="T6">
-        <v>0.004670763304864503</v>
+        <v>0.007345947262760436</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.495387593726878</v>
+        <v>0.560947</v>
       </c>
       <c r="H7">
-        <v>0.495387593726878</v>
+        <v>1.682841</v>
       </c>
       <c r="I7">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138796</v>
       </c>
       <c r="J7">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138795</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.22947507977682</v>
+        <v>6.104042</v>
       </c>
       <c r="N7">
-        <v>5.22947507977682</v>
+        <v>18.312126</v>
       </c>
       <c r="O7">
-        <v>0.2069765385541298</v>
+        <v>0.2173731183071527</v>
       </c>
       <c r="P7">
-        <v>0.2069765385541298</v>
+        <v>0.2173731183071528</v>
       </c>
       <c r="Q7">
-        <v>2.590617076225312</v>
+        <v>3.424044047774</v>
       </c>
       <c r="R7">
-        <v>2.590617076225312</v>
+        <v>30.816396429966</v>
       </c>
       <c r="S7">
-        <v>0.01222035426176576</v>
+        <v>0.01367861700692075</v>
       </c>
       <c r="T7">
-        <v>0.01222035426176576</v>
+        <v>0.01367861700692075</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.495387593726878</v>
+        <v>0.560947</v>
       </c>
       <c r="H8">
-        <v>0.495387593726878</v>
+        <v>1.682841</v>
       </c>
       <c r="I8">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138796</v>
       </c>
       <c r="J8">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138795</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.80619080499358</v>
+        <v>9.854944999999999</v>
       </c>
       <c r="N8">
-        <v>9.80619080499358</v>
+        <v>29.564835</v>
       </c>
       <c r="O8">
-        <v>0.3881176214163214</v>
+        <v>0.3509478023571075</v>
       </c>
       <c r="P8">
-        <v>0.3881176214163214</v>
+        <v>0.3509478023571075</v>
       </c>
       <c r="Q8">
-        <v>4.857865266512406</v>
+        <v>5.528101832915</v>
       </c>
       <c r="R8">
-        <v>4.857865266512406</v>
+        <v>49.752916496235</v>
       </c>
       <c r="S8">
-        <v>0.02291532587255503</v>
+        <v>0.02208405811743573</v>
       </c>
       <c r="T8">
-        <v>0.02291532587255503</v>
+        <v>0.02208405811743573</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.495387593726878</v>
+        <v>0.560947</v>
       </c>
       <c r="H9">
-        <v>0.495387593726878</v>
+        <v>1.682841</v>
       </c>
       <c r="I9">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138796</v>
       </c>
       <c r="J9">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138795</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.22964617369431</v>
+        <v>3.320282333333334</v>
       </c>
       <c r="N9">
-        <v>3.22964617369431</v>
+        <v>9.960847000000001</v>
       </c>
       <c r="O9">
-        <v>0.1278256374852763</v>
+        <v>0.1182397048475118</v>
       </c>
       <c r="P9">
-        <v>0.1278256374852763</v>
+        <v>0.1182397048475119</v>
       </c>
       <c r="Q9">
-        <v>1.599926646575643</v>
+        <v>1.862502414036333</v>
       </c>
       <c r="R9">
-        <v>1.599926646575643</v>
+        <v>16.762521726327</v>
       </c>
       <c r="S9">
-        <v>0.007547109371517475</v>
+        <v>0.007440458370455488</v>
       </c>
       <c r="T9">
-        <v>0.007547109371517475</v>
+        <v>0.007440458370455487</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.495387593726878</v>
+        <v>0.560947</v>
       </c>
       <c r="H10">
-        <v>0.495387593726878</v>
+        <v>1.682841</v>
       </c>
       <c r="I10">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138796</v>
       </c>
       <c r="J10">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138795</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.86073856376713</v>
+        <v>7.207903666666667</v>
       </c>
       <c r="N10">
-        <v>5.86073856376713</v>
+        <v>21.623711</v>
       </c>
       <c r="O10">
-        <v>0.2319612127018668</v>
+        <v>0.2566831120232943</v>
       </c>
       <c r="P10">
-        <v>0.2319612127018668</v>
+        <v>0.2566831120232943</v>
       </c>
       <c r="Q10">
-        <v>2.903337174566918</v>
+        <v>4.043251938105667</v>
       </c>
       <c r="R10">
-        <v>2.903337174566918</v>
+        <v>36.389267442951</v>
       </c>
       <c r="S10">
-        <v>0.01369550488189403</v>
+        <v>0.01615227314607487</v>
       </c>
       <c r="T10">
-        <v>0.01369550488189403</v>
+        <v>0.01615227314607486</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.495387593726878</v>
+        <v>0.560947</v>
       </c>
       <c r="H11">
-        <v>0.495387593726878</v>
+        <v>1.682841</v>
       </c>
       <c r="I11">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138796</v>
       </c>
       <c r="J11">
-        <v>0.05904221969858587</v>
+        <v>0.06292690243138795</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.13997767405825</v>
+        <v>1.593769333333333</v>
       </c>
       <c r="N11">
-        <v>1.13997767405825</v>
+        <v>4.781308</v>
       </c>
       <c r="O11">
-        <v>0.0451189898424058</v>
+        <v>0.05675626246493366</v>
       </c>
       <c r="P11">
-        <v>0.0451189898424058</v>
+        <v>0.05675626246493367</v>
       </c>
       <c r="Q11">
-        <v>0.5647307968540797</v>
+        <v>0.8940201262253333</v>
       </c>
       <c r="R11">
-        <v>0.5647307968540797</v>
+        <v>8.046181136028</v>
       </c>
       <c r="S11">
-        <v>0.002663925310853587</v>
+        <v>0.003571495790501127</v>
       </c>
       <c r="T11">
-        <v>0.002663925310853587</v>
+        <v>0.003571495790501127</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.7870022076297</v>
+        <v>3.837574333333334</v>
       </c>
       <c r="H12">
-        <v>3.7870022076297</v>
+        <v>11.512723</v>
       </c>
       <c r="I12">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736105</v>
       </c>
       <c r="J12">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736104</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.22947507977682</v>
+        <v>6.104042</v>
       </c>
       <c r="N12">
-        <v>5.22947507977682</v>
+        <v>18.312126</v>
       </c>
       <c r="O12">
-        <v>0.2069765385541298</v>
+        <v>0.2173731183071527</v>
       </c>
       <c r="P12">
-        <v>0.2069765385541298</v>
+        <v>0.2173731183071528</v>
       </c>
       <c r="Q12">
-        <v>19.80403367185932</v>
+        <v>23.42471490878867</v>
       </c>
       <c r="R12">
-        <v>19.80403367185932</v>
+        <v>210.822434179098</v>
       </c>
       <c r="S12">
-        <v>0.09341878794170747</v>
+        <v>0.09357873300196971</v>
       </c>
       <c r="T12">
-        <v>0.09341878794170747</v>
+        <v>0.0935787330019697</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.7870022076297</v>
+        <v>3.837574333333334</v>
       </c>
       <c r="H13">
-        <v>3.7870022076297</v>
+        <v>11.512723</v>
       </c>
       <c r="I13">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736105</v>
       </c>
       <c r="J13">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736104</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.80619080499358</v>
+        <v>9.854944999999999</v>
       </c>
       <c r="N13">
-        <v>9.80619080499358</v>
+        <v>29.564835</v>
       </c>
       <c r="O13">
-        <v>0.3881176214163214</v>
+        <v>0.3509478023571075</v>
       </c>
       <c r="P13">
-        <v>0.3881176214163214</v>
+        <v>0.3509478023571075</v>
       </c>
       <c r="Q13">
-        <v>37.13606622694875</v>
+        <v>37.81908398841167</v>
       </c>
       <c r="R13">
-        <v>37.13606622694875</v>
+        <v>340.371755895705</v>
       </c>
       <c r="S13">
-        <v>0.1751767520358301</v>
+        <v>0.1510823921106861</v>
       </c>
       <c r="T13">
-        <v>0.1751767520358301</v>
+        <v>0.1510823921106861</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.7870022076297</v>
+        <v>3.837574333333334</v>
       </c>
       <c r="H14">
-        <v>3.7870022076297</v>
+        <v>11.512723</v>
       </c>
       <c r="I14">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736105</v>
       </c>
       <c r="J14">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736104</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.22964617369431</v>
+        <v>3.320282333333334</v>
       </c>
       <c r="N14">
-        <v>3.22964617369431</v>
+        <v>9.960847000000001</v>
       </c>
       <c r="O14">
-        <v>0.1278256374852763</v>
+        <v>0.1182397048475118</v>
       </c>
       <c r="P14">
-        <v>0.1278256374852763</v>
+        <v>0.1182397048475119</v>
       </c>
       <c r="Q14">
-        <v>12.23067718964317</v>
+        <v>12.74183026182011</v>
       </c>
       <c r="R14">
-        <v>12.23067718964317</v>
+        <v>114.676472356381</v>
       </c>
       <c r="S14">
-        <v>0.05769405655910914</v>
+        <v>0.05090197838778911</v>
       </c>
       <c r="T14">
-        <v>0.05769405655910914</v>
+        <v>0.05090197838778911</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.7870022076297</v>
+        <v>3.837574333333334</v>
       </c>
       <c r="H15">
-        <v>3.7870022076297</v>
+        <v>11.512723</v>
       </c>
       <c r="I15">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736105</v>
       </c>
       <c r="J15">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736104</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.86073856376713</v>
+        <v>7.207903666666667</v>
       </c>
       <c r="N15">
-        <v>5.86073856376713</v>
+        <v>21.623711</v>
       </c>
       <c r="O15">
-        <v>0.2319612127018668</v>
+        <v>0.2566831120232943</v>
       </c>
       <c r="P15">
-        <v>0.2319612127018668</v>
+        <v>0.2566831120232943</v>
       </c>
       <c r="Q15">
-        <v>22.19462987932664</v>
+        <v>27.66086610833923</v>
       </c>
       <c r="R15">
-        <v>22.19462987932664</v>
+        <v>248.947794975053</v>
       </c>
       <c r="S15">
-        <v>0.1046956118382946</v>
+        <v>0.1105016139677477</v>
       </c>
       <c r="T15">
-        <v>0.1046956118382946</v>
+        <v>0.1105016139677477</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.7870022076297</v>
+        <v>3.837574333333334</v>
       </c>
       <c r="H16">
-        <v>3.7870022076297</v>
+        <v>11.512723</v>
       </c>
       <c r="I16">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736105</v>
       </c>
       <c r="J16">
-        <v>0.4513496485848129</v>
+        <v>0.4304981854736104</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.13997767405825</v>
+        <v>1.593769333333333</v>
       </c>
       <c r="N16">
-        <v>1.13997767405825</v>
+        <v>4.781308</v>
       </c>
       <c r="O16">
-        <v>0.0451189898424058</v>
+        <v>0.05675626246493366</v>
       </c>
       <c r="P16">
-        <v>0.0451189898424058</v>
+        <v>0.05675626246493367</v>
       </c>
       <c r="Q16">
-        <v>4.317097968307163</v>
+        <v>6.116208286853778</v>
       </c>
       <c r="R16">
-        <v>4.317097968307163</v>
+        <v>55.045874581684</v>
       </c>
       <c r="S16">
-        <v>0.0203644402098716</v>
+        <v>0.02443346800541793</v>
       </c>
       <c r="T16">
-        <v>0.0203644402098716</v>
+        <v>0.02443346800541793</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.07857235794301</v>
+        <v>3.179188666666667</v>
       </c>
       <c r="H17">
-        <v>3.07857235794301</v>
+        <v>9.537566</v>
       </c>
       <c r="I17">
-        <v>0.3669162244217962</v>
+        <v>0.3566406363494371</v>
       </c>
       <c r="J17">
-        <v>0.3669162244217962</v>
+        <v>0.356640636349437</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.22947507977682</v>
+        <v>6.104042</v>
       </c>
       <c r="N17">
-        <v>5.22947507977682</v>
+        <v>18.312126</v>
       </c>
       <c r="O17">
-        <v>0.2069765385541298</v>
+        <v>0.2173731183071527</v>
       </c>
       <c r="P17">
-        <v>0.2069765385541298</v>
+        <v>0.2173731183071528</v>
       </c>
       <c r="Q17">
-        <v>16.09931742715273</v>
+        <v>19.40590114725733</v>
       </c>
       <c r="R17">
-        <v>16.09931742715273</v>
+        <v>174.653110325316</v>
       </c>
       <c r="S17">
-        <v>0.07594305007017363</v>
+        <v>0.07752408723832442</v>
       </c>
       <c r="T17">
-        <v>0.07594305007017363</v>
+        <v>0.07752408723832442</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.07857235794301</v>
+        <v>3.179188666666667</v>
       </c>
       <c r="H18">
-        <v>3.07857235794301</v>
+        <v>9.537566</v>
       </c>
       <c r="I18">
-        <v>0.3669162244217962</v>
+        <v>0.3566406363494371</v>
       </c>
       <c r="J18">
-        <v>0.3669162244217962</v>
+        <v>0.356640636349437</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.80619080499358</v>
+        <v>9.854944999999999</v>
       </c>
       <c r="N18">
-        <v>9.80619080499358</v>
+        <v>29.564835</v>
       </c>
       <c r="O18">
-        <v>0.3881176214163214</v>
+        <v>0.3509478023571075</v>
       </c>
       <c r="P18">
-        <v>0.3881176214163214</v>
+        <v>0.3509478023571075</v>
       </c>
       <c r="Q18">
-        <v>30.18906794896815</v>
+        <v>31.33072945462333</v>
       </c>
       <c r="R18">
-        <v>30.18906794896815</v>
+        <v>281.97656509161</v>
       </c>
       <c r="S18">
-        <v>0.1424066522816447</v>
+        <v>0.1251622475580753</v>
       </c>
       <c r="T18">
-        <v>0.1424066522816447</v>
+        <v>0.1251622475580753</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.07857235794301</v>
+        <v>3.179188666666667</v>
       </c>
       <c r="H19">
-        <v>3.07857235794301</v>
+        <v>9.537566</v>
       </c>
       <c r="I19">
-        <v>0.3669162244217962</v>
+        <v>0.3566406363494371</v>
       </c>
       <c r="J19">
-        <v>0.3669162244217962</v>
+        <v>0.356640636349437</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.22964617369431</v>
+        <v>3.320282333333334</v>
       </c>
       <c r="N19">
-        <v>3.22964617369431</v>
+        <v>9.960847000000001</v>
       </c>
       <c r="O19">
-        <v>0.1278256374852763</v>
+        <v>0.1182397048475118</v>
       </c>
       <c r="P19">
-        <v>0.1278256374852763</v>
+        <v>0.1182397048475119</v>
       </c>
       <c r="Q19">
-        <v>9.942699436271711</v>
+        <v>10.55580396426689</v>
       </c>
       <c r="R19">
-        <v>9.942699436271711</v>
+        <v>95.00223567840202</v>
       </c>
       <c r="S19">
-        <v>0.0469013002904068</v>
+        <v>0.04216908357858624</v>
       </c>
       <c r="T19">
-        <v>0.0469013002904068</v>
+        <v>0.04216908357858624</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.07857235794301</v>
+        <v>3.179188666666667</v>
       </c>
       <c r="H20">
-        <v>3.07857235794301</v>
+        <v>9.537566</v>
       </c>
       <c r="I20">
-        <v>0.3669162244217962</v>
+        <v>0.3566406363494371</v>
       </c>
       <c r="J20">
-        <v>0.3669162244217962</v>
+        <v>0.356640636349437</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.86073856376713</v>
+        <v>7.207903666666667</v>
       </c>
       <c r="N20">
-        <v>5.86073856376713</v>
+        <v>21.623711</v>
       </c>
       <c r="O20">
-        <v>0.2319612127018668</v>
+        <v>0.2566831120232943</v>
       </c>
       <c r="P20">
-        <v>0.2319612127018668</v>
+        <v>0.2566831120232943</v>
       </c>
       <c r="Q20">
-        <v>18.04270773954411</v>
+        <v>22.91528564749178</v>
       </c>
       <c r="R20">
-        <v>18.04270773954411</v>
+        <v>206.237570827426</v>
       </c>
       <c r="S20">
-        <v>0.08511033237687014</v>
+        <v>0.09154362841214153</v>
       </c>
       <c r="T20">
-        <v>0.08511033237687014</v>
+        <v>0.09154362841214152</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.07857235794301</v>
+        <v>3.179188666666667</v>
       </c>
       <c r="H21">
-        <v>3.07857235794301</v>
+        <v>9.537566</v>
       </c>
       <c r="I21">
-        <v>0.3669162244217962</v>
+        <v>0.3566406363494371</v>
       </c>
       <c r="J21">
-        <v>0.3669162244217962</v>
+        <v>0.356640636349437</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.13997767405825</v>
+        <v>1.593769333333333</v>
       </c>
       <c r="N21">
-        <v>1.13997767405825</v>
+        <v>4.781308</v>
       </c>
       <c r="O21">
-        <v>0.0451189898424058</v>
+        <v>0.05675626246493366</v>
       </c>
       <c r="P21">
-        <v>0.0451189898424058</v>
+        <v>0.05675626246493367</v>
       </c>
       <c r="Q21">
-        <v>3.509503756027895</v>
+        <v>5.066893401814222</v>
       </c>
       <c r="R21">
-        <v>3.509503756027895</v>
+        <v>45.602040616328</v>
       </c>
       <c r="S21">
-        <v>0.01655488940270091</v>
+        <v>0.02024158956230961</v>
       </c>
       <c r="T21">
-        <v>0.01655488940270091</v>
+        <v>0.02024158956230961</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.160851434089676</v>
+        <v>0.182783</v>
       </c>
       <c r="H22">
-        <v>0.160851434089676</v>
+        <v>0.548349</v>
       </c>
       <c r="I22">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="J22">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.22947507977682</v>
+        <v>6.104042</v>
       </c>
       <c r="N22">
-        <v>5.22947507977682</v>
+        <v>18.312126</v>
       </c>
       <c r="O22">
-        <v>0.2069765385541298</v>
+        <v>0.2173731183071527</v>
       </c>
       <c r="P22">
-        <v>0.2069765385541298</v>
+        <v>0.2173731183071528</v>
       </c>
       <c r="Q22">
-        <v>0.8411685661183242</v>
+        <v>1.115715108886</v>
       </c>
       <c r="R22">
-        <v>0.8411685661183242</v>
+        <v>10.041435979974</v>
       </c>
       <c r="S22">
-        <v>0.003967926393353795</v>
+        <v>0.004457138824837276</v>
       </c>
       <c r="T22">
-        <v>0.003967926393353795</v>
+        <v>0.004457138824837276</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.160851434089676</v>
+        <v>0.182783</v>
       </c>
       <c r="H23">
-        <v>0.160851434089676</v>
+        <v>0.548349</v>
       </c>
       <c r="I23">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="J23">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.80619080499358</v>
+        <v>9.854944999999999</v>
       </c>
       <c r="N23">
-        <v>9.80619080499358</v>
+        <v>29.564835</v>
       </c>
       <c r="O23">
-        <v>0.3881176214163214</v>
+        <v>0.3509478023571075</v>
       </c>
       <c r="P23">
-        <v>0.3881176214163214</v>
+        <v>0.3509478023571075</v>
       </c>
       <c r="Q23">
-        <v>1.577339853940212</v>
+        <v>1.801316411935</v>
       </c>
       <c r="R23">
-        <v>1.577339853940212</v>
+        <v>16.211847707415</v>
       </c>
       <c r="S23">
-        <v>0.007440563865361782</v>
+        <v>0.007196028136132744</v>
       </c>
       <c r="T23">
-        <v>0.007440563865361782</v>
+        <v>0.007196028136132744</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.160851434089676</v>
+        <v>0.182783</v>
       </c>
       <c r="H24">
-        <v>0.160851434089676</v>
+        <v>0.548349</v>
       </c>
       <c r="I24">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="J24">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.22964617369431</v>
+        <v>3.320282333333334</v>
       </c>
       <c r="N24">
-        <v>3.22964617369431</v>
+        <v>9.960847000000001</v>
       </c>
       <c r="O24">
-        <v>0.1278256374852763</v>
+        <v>0.1182397048475118</v>
       </c>
       <c r="P24">
-        <v>0.1278256374852763</v>
+        <v>0.1182397048475119</v>
       </c>
       <c r="Q24">
-        <v>0.5194932186409645</v>
+        <v>0.6068911657336667</v>
       </c>
       <c r="R24">
-        <v>0.5194932186409645</v>
+        <v>5.462020491603</v>
       </c>
       <c r="S24">
-        <v>0.002450532433619066</v>
+        <v>0.002424452403394555</v>
       </c>
       <c r="T24">
-        <v>0.002450532433619066</v>
+        <v>0.002424452403394554</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.160851434089676</v>
+        <v>0.182783</v>
       </c>
       <c r="H25">
-        <v>0.160851434089676</v>
+        <v>0.548349</v>
       </c>
       <c r="I25">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="J25">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.86073856376713</v>
+        <v>7.207903666666667</v>
       </c>
       <c r="N25">
-        <v>5.86073856376713</v>
+        <v>21.623711</v>
       </c>
       <c r="O25">
-        <v>0.2319612127018668</v>
+        <v>0.2566831120232943</v>
       </c>
       <c r="P25">
-        <v>0.2319612127018668</v>
+        <v>0.2566831120232943</v>
       </c>
       <c r="Q25">
-        <v>0.9427082028066109</v>
+        <v>1.317482255904333</v>
       </c>
       <c r="R25">
-        <v>0.9427082028066109</v>
+        <v>11.857340303139</v>
       </c>
       <c r="S25">
-        <v>0.004446905067326657</v>
+        <v>0.005263172710539502</v>
       </c>
       <c r="T25">
-        <v>0.004446905067326657</v>
+        <v>0.005263172710539501</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.160851434089676</v>
+        <v>0.182783</v>
       </c>
       <c r="H26">
-        <v>0.160851434089676</v>
+        <v>0.548349</v>
       </c>
       <c r="I26">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="J26">
-        <v>0.0191708993737765</v>
+        <v>0.02050455391884863</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.13997767405825</v>
+        <v>1.593769333333333</v>
       </c>
       <c r="N26">
-        <v>1.13997767405825</v>
+        <v>4.781308</v>
       </c>
       <c r="O26">
-        <v>0.0451189898424058</v>
+        <v>0.05675626246493366</v>
       </c>
       <c r="P26">
-        <v>0.0451189898424058</v>
+        <v>0.05675626246493367</v>
       </c>
       <c r="Q26">
-        <v>0.1833670437024827</v>
+        <v>0.2913139400546667</v>
       </c>
       <c r="R26">
-        <v>0.1833670437024827</v>
+        <v>2.621825460492</v>
       </c>
       <c r="S26">
-        <v>0.0008649716141152057</v>
+        <v>0.001163761843944557</v>
       </c>
       <c r="T26">
-        <v>0.0008649716141152057</v>
+        <v>0.001163761843944557</v>
       </c>
     </row>
   </sheetData>
